--- a/REGULAR/ASSESSOR/BAYOT, RUMER MALABANAN.xlsx
+++ b/REGULAR/ASSESSOR/BAYOT, RUMER MALABANAN.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="106">
   <si>
     <t>PERIOD</t>
   </si>
@@ -348,6 +348,9 @@
   </si>
   <si>
     <t>UT(0-1-7)</t>
+  </si>
+  <si>
+    <t>11/28,29/2023</t>
   </si>
 </sst>
 </file>
@@ -1371,9 +1374,9 @@
   <dimension ref="A2:K160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A97" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A118" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="F109" sqref="F109"/>
+      <selection pane="bottomLeft" activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,7 +1539,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>53.098000000000006</v>
+        <v>60.598000000000006</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1546,7 +1549,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>67.75</v>
+        <v>73.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4197,13 +4200,15 @@
         <v>45078</v>
       </c>
       <c r="B131" s="20"/>
-      <c r="C131" s="13"/>
+      <c r="C131" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D131" s="39"/>
       <c r="E131" s="9"/>
       <c r="F131" s="20"/>
-      <c r="G131" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G131" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H131" s="39"/>
       <c r="I131" s="9"/>
@@ -4215,13 +4220,15 @@
         <v>45108</v>
       </c>
       <c r="B132" s="20"/>
-      <c r="C132" s="13"/>
+      <c r="C132" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D132" s="39"/>
       <c r="E132" s="9"/>
       <c r="F132" s="20"/>
-      <c r="G132" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G132" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H132" s="39"/>
       <c r="I132" s="9"/>
@@ -4233,13 +4240,15 @@
         <v>45139</v>
       </c>
       <c r="B133" s="20"/>
-      <c r="C133" s="13"/>
+      <c r="C133" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D133" s="39"/>
       <c r="E133" s="9"/>
       <c r="F133" s="20"/>
-      <c r="G133" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G133" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H133" s="39"/>
       <c r="I133" s="9"/>
@@ -4251,13 +4260,15 @@
         <v>45170</v>
       </c>
       <c r="B134" s="20"/>
-      <c r="C134" s="13"/>
+      <c r="C134" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D134" s="39"/>
       <c r="E134" s="9"/>
       <c r="F134" s="20"/>
-      <c r="G134" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G134" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H134" s="39"/>
       <c r="I134" s="9"/>
@@ -4269,13 +4280,15 @@
         <v>45200</v>
       </c>
       <c r="B135" s="20"/>
-      <c r="C135" s="13"/>
+      <c r="C135" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D135" s="39"/>
       <c r="E135" s="9"/>
       <c r="F135" s="20"/>
-      <c r="G135" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G135" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H135" s="39"/>
       <c r="I135" s="9"/>
@@ -4286,19 +4299,27 @@
       <c r="A136" s="40">
         <v>45231</v>
       </c>
-      <c r="B136" s="20"/>
-      <c r="C136" s="13"/>
+      <c r="B136" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C136" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D136" s="39"/>
       <c r="E136" s="9"/>
       <c r="F136" s="20"/>
-      <c r="G136" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H136" s="39"/>
+      <c r="G136" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H136" s="39">
+        <v>2</v>
+      </c>
       <c r="I136" s="9"/>
       <c r="J136" s="11"/>
-      <c r="K136" s="20"/>
+      <c r="K136" s="20" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
@@ -4895,7 +4916,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>120.84800000000001</v>
+        <v>133.84800000000001</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
